--- a/Water soft Puzzle_TC.xlsx
+++ b/Water soft Puzzle_TC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\이력서 및 포트폴리오\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B48EA-741B-4E6B-87F9-85D9BA3EB944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9722A1-6702-4689-B578-CF89BB6B15A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="384" windowWidth="23052" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +691,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -699,51 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1051,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F87" sqref="A76:F87"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1089,12 +1083,12 @@
     </row>
     <row r="2" spans="1:14" ht="27.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1124,7 +1118,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15">
@@ -1144,7 +1138,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1169,12 +1163,12 @@
     </row>
     <row r="7" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1187,16 +1181,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="33" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="3"/>
@@ -1214,7 +1208,7 @@
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1236,7 +1230,7 @@
       <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1250,7 @@
       <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1276,7 +1270,7 @@
       <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1290,7 @@
       <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1316,7 +1310,7 @@
       <c r="B14" s="7">
         <v>6</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1330,7 @@
       <c r="B15" s="7">
         <v>7</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1350,7 @@
       <c r="B16" s="7">
         <v>8</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
@@ -1376,7 +1370,7 @@
       <c r="B17" s="7">
         <v>9</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
@@ -1396,7 +1390,7 @@
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1410,7 @@
       <c r="B19" s="7">
         <v>11</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1430,7 @@
       <c r="B20" s="7">
         <v>12</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1450,7 @@
       <c r="B21" s="7">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1470,7 @@
       <c r="B22" s="7">
         <v>14</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="9" t="s">
         <v>53</v>
       </c>
@@ -1496,7 +1490,7 @@
       <c r="B23" s="7">
         <v>15</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1510,7 @@
       <c r="B24" s="7">
         <v>16</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1530,7 @@
       <c r="B25" s="7">
         <v>17</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1550,7 @@
       <c r="B26" s="7">
         <v>18</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1570,7 @@
       <c r="B27" s="7">
         <v>19</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1598,7 +1592,7 @@
       <c r="B28" s="7">
         <v>20</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="9" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1612,7 @@
       <c r="B29" s="7">
         <v>21</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="9" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1632,7 @@
       <c r="B30" s="7">
         <v>22</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="9" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1652,7 @@
       <c r="B31" s="7">
         <v>23</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="9" t="s">
         <v>51</v>
       </c>
@@ -1678,7 +1672,7 @@
       <c r="B32" s="7">
         <v>24</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="9" t="s">
         <v>85</v>
       </c>
@@ -1698,7 +1692,7 @@
       <c r="B33" s="7">
         <v>25</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1720,7 +1714,7 @@
       <c r="B34" s="7">
         <v>26</v>
       </c>
-      <c r="C34" s="35"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1740,7 +1734,7 @@
       <c r="B35" s="7">
         <v>27</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="9" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1754,7 @@
       <c r="B36" s="7">
         <v>28</v>
       </c>
-      <c r="C36" s="35"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="9" t="s">
         <v>45</v>
       </c>
@@ -1780,7 +1774,7 @@
       <c r="B37" s="7">
         <v>29</v>
       </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="9" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1794,7 @@
       <c r="B38" s="7">
         <v>30</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="9" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1814,7 @@
       <c r="B39" s="7">
         <v>31</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="9" t="s">
         <v>48</v>
       </c>
@@ -1840,7 +1834,7 @@
       <c r="B40" s="7">
         <v>32</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="9" t="s">
         <v>49</v>
       </c>
@@ -1860,7 +1854,7 @@
       <c r="B41" s="7">
         <v>33</v>
       </c>
-      <c r="C41" s="35"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="9" t="s">
         <v>50</v>
       </c>
@@ -1880,7 +1874,7 @@
       <c r="B42" s="7">
         <v>34</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="9" t="s">
         <v>86</v>
       </c>
@@ -1900,7 +1894,7 @@
       <c r="B43" s="7">
         <v>35</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="36" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -1922,7 +1916,7 @@
       <c r="B44" s="7">
         <v>36</v>
       </c>
-      <c r="C44" s="35"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="16" t="s">
         <v>56</v>
       </c>
@@ -1942,7 +1936,7 @@
       <c r="B45" s="7">
         <v>37</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="9" t="s">
         <v>57</v>
       </c>
@@ -1962,7 +1956,7 @@
       <c r="B46" s="7">
         <v>38</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="9" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +1976,7 @@
       <c r="B47" s="7">
         <v>39</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="9" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +1996,7 @@
       <c r="B48" s="7">
         <v>40</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="9" t="s">
         <v>70</v>
       </c>
@@ -2022,7 +2016,7 @@
       <c r="B49" s="7">
         <v>41</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="9" t="s">
         <v>72</v>
       </c>
@@ -2042,7 +2036,7 @@
       <c r="B50" s="7">
         <v>42</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="9" t="s">
         <v>73</v>
       </c>
@@ -2062,7 +2056,7 @@
       <c r="B51" s="7">
         <v>43</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="9" t="s">
         <v>84</v>
       </c>
@@ -2082,7 +2076,7 @@
       <c r="B52" s="7">
         <v>44</v>
       </c>
-      <c r="C52" s="47"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="9" t="s">
         <v>87</v>
       </c>
@@ -2102,7 +2096,7 @@
       <c r="B53" s="7">
         <v>45</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="9" t="s">
         <v>79</v>
       </c>
@@ -2122,7 +2116,7 @@
       <c r="B54" s="7">
         <v>46</v>
       </c>
-      <c r="C54" s="47"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="9" t="s">
         <v>80</v>
       </c>
@@ -2142,7 +2136,7 @@
       <c r="B55" s="7">
         <v>47</v>
       </c>
-      <c r="C55" s="47"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="9" t="s">
         <v>81</v>
       </c>
@@ -2162,7 +2156,7 @@
       <c r="B56" s="7">
         <v>48</v>
       </c>
-      <c r="C56" s="47"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="9" t="s">
         <v>82</v>
       </c>
@@ -2182,7 +2176,7 @@
       <c r="B57" s="7">
         <v>49</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="9" t="s">
         <v>83</v>
       </c>
@@ -2202,7 +2196,7 @@
       <c r="B58" s="7">
         <v>50</v>
       </c>
-      <c r="C58" s="47"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="9" t="s">
         <v>93</v>
       </c>
@@ -2222,7 +2216,7 @@
       <c r="B59" s="7">
         <v>51</v>
       </c>
-      <c r="C59" s="48"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="9" t="s">
         <v>94</v>
       </c>
@@ -2242,7 +2236,7 @@
       <c r="B60" s="7">
         <v>52</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="36" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -2264,7 +2258,7 @@
       <c r="B61" s="7">
         <v>53</v>
       </c>
-      <c r="C61" s="35"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="9" t="s">
         <v>76</v>
       </c>
@@ -2284,7 +2278,7 @@
       <c r="B62" s="7">
         <v>54</v>
       </c>
-      <c r="C62" s="35"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="9" t="s">
         <v>77</v>
       </c>
@@ -2304,7 +2298,7 @@
       <c r="B63" s="7">
         <v>55</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="9" t="s">
         <v>78</v>
       </c>
@@ -2324,7 +2318,7 @@
       <c r="B64" s="7">
         <v>56</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="36" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -2346,7 +2340,7 @@
       <c r="B65" s="7">
         <v>57</v>
       </c>
-      <c r="C65" s="35"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="9" t="s">
         <v>90</v>
       </c>
@@ -2366,7 +2360,7 @@
       <c r="B66" s="7">
         <v>58</v>
       </c>
-      <c r="C66" s="35"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="9" t="s">
         <v>89</v>
       </c>
@@ -2386,7 +2380,7 @@
       <c r="B67" s="7">
         <v>59</v>
       </c>
-      <c r="C67" s="36"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="9" t="s">
         <v>91</v>
       </c>
@@ -2406,7 +2400,7 @@
       <c r="B68" s="7">
         <v>60</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -2428,7 +2422,7 @@
       <c r="B69" s="7">
         <v>61</v>
       </c>
-      <c r="C69" s="35"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="9" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2442,7 @@
       <c r="B70" s="7">
         <v>62</v>
       </c>
-      <c r="C70" s="35"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="9" t="s">
         <v>63</v>
       </c>
@@ -2468,7 +2462,7 @@
       <c r="B71" s="7">
         <v>63</v>
       </c>
-      <c r="C71" s="35"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="9" t="s">
         <v>64</v>
       </c>
@@ -2488,7 +2482,7 @@
       <c r="B72" s="7">
         <v>64</v>
       </c>
-      <c r="C72" s="35"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="9" t="s">
         <v>65</v>
       </c>
@@ -2508,7 +2502,7 @@
       <c r="B73" s="7">
         <v>65</v>
       </c>
-      <c r="C73" s="35"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="9" t="s">
         <v>66</v>
       </c>
@@ -2528,7 +2522,7 @@
       <c r="B74" s="7">
         <v>66</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="9" t="s">
         <v>67</v>
       </c>
@@ -2548,7 +2542,7 @@
       <c r="B75" s="7">
         <v>67</v>
       </c>
-      <c r="C75" s="35"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="9" t="s">
         <v>68</v>
       </c>
@@ -2568,7 +2562,7 @@
       <c r="B76" s="7">
         <v>68</v>
       </c>
-      <c r="C76" s="47"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="9" t="s">
         <v>69</v>
       </c>
@@ -2588,7 +2582,7 @@
       <c r="B77" s="7">
         <v>69</v>
       </c>
-      <c r="C77" s="47"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="9" t="s">
         <v>71</v>
       </c>
@@ -2621,12 +2615,12 @@
     </row>
     <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3"/>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="33"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -2666,7 +2660,7 @@
       <c r="B81" s="7">
         <v>1</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -2690,7 +2684,7 @@
       <c r="B82" s="7">
         <v>2</v>
       </c>
-      <c r="C82" s="35"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="9" t="s">
         <v>15</v>
       </c>
@@ -2712,7 +2706,7 @@
       <c r="B83" s="7">
         <v>3</v>
       </c>
-      <c r="C83" s="35"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="9" t="s">
         <v>14</v>
       </c>
@@ -2734,7 +2728,7 @@
       <c r="B84" s="7">
         <v>4</v>
       </c>
-      <c r="C84" s="35"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="9" t="s">
         <v>11</v>
       </c>
@@ -2756,7 +2750,7 @@
       <c r="B85" s="7">
         <v>5</v>
       </c>
-      <c r="C85" s="35"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="9" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +2772,7 @@
       <c r="B86" s="22">
         <v>6</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="23" t="s">
         <v>13</v>
       </c>
@@ -3011,17 +3005,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="C9:C26"/>
     <mergeCell ref="C81:C86"/>
-    <mergeCell ref="C9:C22"/>
     <mergeCell ref="C33:C42"/>
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="C68:C75"/>
-    <mergeCell ref="C43:C51"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="C60:C63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
